--- a/attendance_data/IS.xlsx
+++ b/attendance_data/IS.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance_Record" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Student_ID</t>
+          <t>Roll Number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
     </row>
